--- a/Renovacao/Dados_Renovacao/Original/Amanda Goncalves dos Santos.xlsx
+++ b/Renovacao/Dados_Renovacao/Original/Amanda Goncalves dos Santos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,46 +504,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>271016</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MARIA SALETE DE FREITAS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>53123088860215</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -700,7 +668,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9887</t>
+          <t>10083</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -710,17 +678,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>RENATO LOT</t>
+          <t>JOAO FERREIRA DO AMARAL NETO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>531038W3ACZ5D8</t>
+          <t>531038W3BIZHT4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -765,12 +733,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9922</t>
+          <t>125839</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -780,17 +748,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IVAN ANTONIO FORMAGGIO</t>
+          <t>JOAO FERREIRA DO AMARAL NETO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>531038W3AKH7L7</t>
+          <t>53123090577550</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -828,14 +796,46 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CERAMICA TERRA VITTA LTDA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>53103893D5KUP9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -866,14 +866,46 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>272016</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ROSA MARIA BUZINARO PEREIRA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>De: 03/11/2023a03/11/2024</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>53123089330961</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -896,7 +928,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>403109 - ANEXXE CORRETORA DE SEGUROS LTDA</t>
+          <t>401941 - AMBIEL CORRETORA DE SEGUROS S/S</t>
         </is>
       </c>
     </row>
@@ -904,14 +936,46 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>273348</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ALINE MARIA COLEONI</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>De: 21/11/2023a21/11/2024</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>53123090373512</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -934,7 +998,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>401346 - ANNO LUCIS CORRET SEGS.E REPRES</t>
+          <t>401941 - AMBIEL CORRETORA DE SEGUROS S/S</t>
         </is>
       </c>
     </row>
@@ -972,7 +1036,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>524795 - ASSET SEGUROS E SOLUCOES FINANC</t>
+          <t>403109 - ANEXXE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1074,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>400313 - AYLTON LIMA DA SILVA</t>
+          <t>401346 - ANNO LUCIS CORRET SEGS.E REPRES</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1112,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>528027 - Aviv Corretora de Seguros Ltda</t>
+          <t>524795 - ASSET SEGUROS E SOLUCOES FINANC</t>
         </is>
       </c>
     </row>
@@ -1056,14 +1120,46 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>273698</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ADRIANO FERREIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>De: 30/11/2023a30/11/2024</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>53123090688912</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1086,7 +1182,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>526203 - B R DA C RODRIGUES CORRETORA DE</t>
+          <t>400313 - AYLTON LIMA DA SILVA</t>
         </is>
       </c>
     </row>
@@ -1094,46 +1190,14 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>270633</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>LEANDRO GOMES CRUZ</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>De: 14/10/2023a14/10/2024</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>53123088657762</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1156,7 +1220,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>494538 - CAMARGO TJONG CORR DE SEGUROS LT</t>
+          <t>528027 - Aviv Corretora de Seguros Ltda</t>
         </is>
       </c>
     </row>
@@ -1164,46 +1228,14 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>270151</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>CLAUDIA DE CAMPOS MAZZARI LIMA</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>De: 07/10/2023a07/10/2024</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>53123088312021</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1226,7 +1258,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>403476 - CARLOS E DEMAIS COR DE SEGS LTDA</t>
+          <t>526203 - B R DA C RODRIGUES CORRETORA DE</t>
         </is>
       </c>
     </row>
@@ -1234,14 +1266,46 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>273693</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>JUSCILEIA FERNANDES BORTOLOTTI</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>53123090688866</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1264,7 +1328,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>521967 - CARRARA CORRETORES SEG LTDA</t>
+          <t>494538 - CAMARGO TJONG CORR DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1366,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>404083 - CENTRAL DE BENEFICIOS CORR DE SE</t>
+          <t>403476 - CARLOS E DEMAIS COR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1404,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>527515 - CEZARINI CORRETORA DE SEGUROS LT</t>
+          <t>521967 - CARRARA CORRETORES SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1442,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>482893 - CILEINE ROCHA NARDINE</t>
+          <t>404083 - CENTRAL DE BENEFICIOS CORR DE SE</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1480,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>524260 - CL MACEDO CORRETORA DE SEGUROS L</t>
+          <t>527515 - CEZARINI CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1518,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>435625 - CLAIR JOSE DE PAULA</t>
+          <t>482893 - CILEINE ROCHA NARDINE</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1556,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>402814 - CONS ESTAT E CORR DE SEGS PIVATT</t>
+          <t>435625 - CLAIR JOSE DE PAULA</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1594,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>480726 - CONTAINER CORR DE SEGUROS EIRELI</t>
+          <t>402814 - CONS ESTAT E CORR DE SEGS PIVATT</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1632,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>487465 - DANIEL REIS KRAUCHENCO</t>
+          <t>480726 - CONTAINER CORR DE SEGUROS EIRELI</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1640,14 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>270559</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>LUMA IMPLEMENTOS AGRICOLAS LTDA</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>53123088657029</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1638,7 +1670,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>400129 - DANIELLI BRASILEIRO MENDES</t>
+          <t>487465 - DANIEL REIS KRAUCHENCO</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1690,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>271603</t>
+          <t>273424</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1668,17 +1700,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>BIANCA SEVILHA CAMPOS</t>
+          <t>PATRICIA NUNES MARCILIO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>53123089133066</t>
+          <t>53123090457163</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1716,46 +1748,14 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>271890</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>ALLAN TURQUETTI MARCHINI ARAGAO</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>53123089259752</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>400129 - DANIELLI BRASILEIRO MENDES</t>
+          <t>496769 - DEBORAH LOURENCO FERRAZ</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>124556</t>
+          <t>274110</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1808,17 +1808,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ITAMAR ALVARO DE MOURA</t>
+          <t>JULIA CARVALHO DE ARAUJO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 01/12/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>53123088658963</t>
+          <t>53123091022780</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>496769 - DEBORAH LOURENCO FERRAZ</t>
+          <t>526969 - Divina Corretora de Seguros LTDA</t>
         </is>
       </c>
     </row>
@@ -1856,46 +1856,14 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>124729</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>ITAMAR ALVARO DE MOURA</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>53123088861882</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1908,7 +1876,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -1918,7 +1886,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>496769 - DEBORAH LOURENCO FERRAZ</t>
+          <t>400861 - EDUARDO ALEXANDRE NALLIN</t>
         </is>
       </c>
     </row>
@@ -1926,46 +1894,14 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>125461</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>BIANCA ESTEVES CARRIEL</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>53123089842792</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1978,7 +1914,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1988,7 +1924,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>496769 - DEBORAH LOURENCO FERRAZ</t>
+          <t>484051 - F C CASTRO CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -1996,14 +1932,46 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>272959</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MARISA ALVES LUZ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>De: 10/11/2023a10/11/2024</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>53123090028653</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2026,7 +1994,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>526969 - Divina Corretora de Seguros LTDA</t>
+          <t>488160 - GASPARSEG ASSESSORIA E CORR DE S</t>
         </is>
       </c>
     </row>
@@ -2034,14 +2002,46 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>272889</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>GUSTAVO DO CARMO ZAMPIERI</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>De: 06/11/2023a06/11/2024</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>53123089974036</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>400861 - EDUARDO ALEXANDRE NALLIN</t>
+          <t>484644 - GESTICH CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>272212</t>
+          <t>272965</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2094,17 +2094,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ANGELO CARLOS DE MORAES</t>
+          <t>GERUZA GASPARINI BRUNELLI</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 20/11/2023a20/11/2024</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>53123089453699</t>
+          <t>53123090028718</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>484051 - F C CASTRO CORRETORA DE SEGUROS</t>
+          <t>484644 - GESTICH CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>272327</t>
+          <t>43962</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2164,17 +2164,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ELIS RENATA GUERRERA DO AMARAL</t>
+          <t>ANA FRANCISCA BINI SANTIAGO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>53123089512725</t>
+          <t>5310389A0IWM98</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>484051 - F C CASTRO CORRETORA DE SEGUROS</t>
+          <t>484644 - GESTICH CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>272345</t>
+          <t>273085</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DANIELLE CRISTINA SANTOS MESQUITA</t>
+          <t>LEANDRO GOMES BEATO</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>53123089512903</t>
+          <t>53123090173564</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>484051 - F C CASTRO CORRETORA DE SEGUROS</t>
+          <t>438503 - GOBE ADM E CORRET DE SEGS EIRELI</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>271666</t>
+          <t>273263</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DUFER INDUSTRIA E COMERCIO DE ALIMENTOS</t>
+          <t>STEPHAN WALTER SCHWIND</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>53123089133694</t>
+          <t>53123090293594</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>484051 - F C CASTRO CORRETORA DE SEGUROS</t>
+          <t>438503 - GOBE ADM E CORRET DE SEGS EIRELI</t>
         </is>
       </c>
     </row>
@@ -2352,46 +2352,14 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>272344</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>CLAUDINEI APARECIDO ROSA</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>53123089512890</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2414,7 +2382,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>484051 - F C CASTRO CORRETORA DE SEGUROS</t>
+          <t>482957 - INVEST B R E CORR DE SEG LTDA ME</t>
         </is>
       </c>
     </row>
@@ -2434,7 +2402,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>271765</t>
+          <t>272621</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2444,17 +2412,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LUIZ ARMANDO FABRI DE SOUZA</t>
+          <t>MARCOS PEREIRA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 06/11/2023a06/11/2024</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>53123089192950</t>
+          <t>53123089728590</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2484,7 +2452,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>488160 - GASPARSEG ASSESSORIA E CORR DE S</t>
+          <t>436053 - KEITE COPPOLA DOS SANTOS</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2467,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>271356</t>
+          <t>43411</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2514,17 +2482,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MARTINHO ANTONIO GESTIC</t>
+          <t>FABIO DE LIMA E SILVA ME</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>53123088987215</t>
+          <t>53103899X8T2P0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2554,7 +2522,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>484644 - GESTICH CORRETORA DE SEGUROS LTD</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2569,12 +2537,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>270490</t>
+          <t>43452</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2584,17 +2552,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CLAUDIA BATISTA DA SILVA</t>
+          <t>JOSE DIAS FILHO</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>53123088578986</t>
+          <t>53103899XHLFL0</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2624,7 +2592,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>438503 - GOBE ADM E CORRET DE SEGS EIRELI</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2612,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>271748</t>
+          <t>272636</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2654,17 +2622,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO GARCIA</t>
+          <t>VINICIUS ANTONIO DO NASCIMENTO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>53123089192780</t>
+          <t>53123089728744</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2694,7 +2662,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>438503 - GOBE ADM E CORRET DE SEGS EIRELI</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2702,14 +2670,46 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>43878</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CLAUDIA JOSE DA PAIXAO</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>De: 18/11/2023a18/11/2024</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>5310389A00WGX1</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>482957 - INVEST B R E CORR DE SEG LTDA ME</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>271154</t>
+          <t>273170</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VPA AUTOMACAO E SISTEMAS LTDA</t>
+          <t>MARIA TEREZA DE MORAES SOARES</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>53123088914196</t>
+          <t>53123090174412</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>436053 - KEITE COPPOLA DOS SANTOS</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>271153</t>
+          <t>43998</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2832,17 +2832,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VPA AUTOMACAO E SISTEMAS LTDA</t>
+          <t>SUELI PACE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>De: 15/10/2023a15/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>53123088914188</t>
+          <t>5310389A0QME90</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>436053 - KEITE COPPOLA DOS SANTOS</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2887,12 +2887,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>271037</t>
+          <t>43999</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2902,17 +2902,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MARILEIDE ALVES DA SILVA</t>
+          <t>EVERTON MARTINS DOS SANTOS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>53123088860428</t>
+          <t>5310389A0QU411</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>436053 - KEITE COPPOLA DOS SANTOS</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>272690</t>
+          <t>44182</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2972,17 +2972,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>RODRIGO VILAVERDE FRANCO</t>
+          <t>DANIELA ANGELICA TAROCCO</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>53123089789344</t>
+          <t>5310389A1U25D8</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>436053 - KEITE COPPOLA DOS SANTOS</t>
+          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>270266</t>
+          <t>274073</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>JULIO PEREIRA DA SILVA</t>
+          <t>CARLOS HENRIQUE RENZO DO ESPIRITO SANTO</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>De: 01/10/2023a01/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53123088457429</t>
+          <t>53123091022411</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3090,46 +3090,14 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>42647</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>DOUGLAS DE CASSIO DA COSTA SANTOS</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>53103899SP20H2</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3152,7 +3120,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>404040 - LAXMI CORRETORA E ADM DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -3160,46 +3128,14 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>270225</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>MARCELO GAROFALO</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>53123088387269</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3222,7 +3158,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>440758 - LILIAN DA SILVA BRITO</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3173,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>42694</t>
+          <t>272840</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3252,17 +3188,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MARCOS ZEFERINO PRADO</t>
+          <t>CARMEN MARIA DA COSTA BRANDAO</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>De: 09/10/2023a09/10/2024</t>
+          <t>De: 12/11/2023a12/11/2024</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>53103899SZ4O17</t>
+          <t>53123089909358</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3292,7 +3228,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>400367 - LUCIANA MARIA CAPPELLANO WAACK</t>
         </is>
       </c>
     </row>
@@ -3300,46 +3236,14 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>271027</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>JOAO PAULO SOUZA TRINDADE</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>53123088860320</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3362,7 +3266,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>400851 - LUIZ FERNANDO BERNARDI PELLIN</t>
         </is>
       </c>
     </row>
@@ -3370,46 +3274,14 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>272075</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>RODRIGO CREPALDI DA SILVA</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>53123089398868</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3432,7 +3304,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>400617 - MARCELLA STORANI</t>
         </is>
       </c>
     </row>
@@ -3440,46 +3312,14 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>272107</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ALLIANCE MK CONTROLE DE PRAGAS E SERVICO</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>53123089399180</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3502,7 +3342,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>400408 - MARCIO FERREIRA DA SILVA</t>
         </is>
       </c>
     </row>
@@ -3510,46 +3350,14 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>271809</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>MARTIN EMIL ERISMANN TESCHKE</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>53123089193395</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3572,7 +3380,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>400170 - MARCO ANTONIO TREVISAN ARANTES</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3395,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>271701</t>
+          <t>43594</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3602,17 +3410,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LETICIA DA SILVA ANDRADE</t>
+          <t>ERICA PICELLI FERNANDES</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>53123089134046</t>
+          <t>53103899YC1413</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3642,7 +3450,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>488050 - MARIA PAULA RIBEIRO CONTENTO</t>
         </is>
       </c>
     </row>
@@ -3657,12 +3465,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>271708</t>
+          <t>44136</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3672,17 +3480,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>PATRICIA SAYURI MANSO ASSANUMA</t>
+          <t>PEDRO HENRIQUE TIOL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>De: 26/10/2023a26/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>53123089134119</t>
+          <t>5310389A1K77L5</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3712,7 +3520,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>488050 - MARIA PAULA RIBEIRO CONTENTO</t>
         </is>
       </c>
     </row>
@@ -3720,46 +3528,14 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>43240</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>FABRICIO NARCISO RODRIGUES DA SILVA</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>De: 27/10/2023a27/10/2024</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>53103899W85MP5</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3782,7 +3558,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>414851 - MARILENE NEGRO DA SILVA</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3573,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>43352</t>
+          <t>5387</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3812,17 +3588,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TATIANE DOS SANTOS DIAS</t>
+          <t>OPEN ACCESS ENSINO DE IDIOMAS E GESTAO LTDA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>De: 31/10/2023a31/10/2024</t>
+          <t>De: 04/11/2023a04/11/2024</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>53103899WW5TT8</t>
+          <t>53103893MUY0H9</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3852,7 +3628,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>486449 - L. BRITO CORRETORA DE SEGUROS LT</t>
+          <t>400204 - MAURICIO LOPES</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3648,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>269893</t>
+          <t>272547</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3882,17 +3658,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MANOEL CYRILLO DE OLIVEIRA NETTO</t>
+          <t>ESTHER DA SILVA BARBOSA B DA COSTA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>53123088135855</t>
+          <t>53123089671653</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3922,7 +3698,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>404040 - LAXMI CORRETORA E ADM DE SEGUROS</t>
+          <t>400204 - MAURICIO LOPES</t>
         </is>
       </c>
     </row>
@@ -3930,14 +3706,46 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>43528</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>SONIA MARIA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>De: 10/11/2023a10/11/2024</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>53103899XXVUP2</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3960,7 +3768,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>440758 - LILIAN DA SILVA BRITO</t>
+          <t>400204 - MAURICIO LOPES</t>
         </is>
       </c>
     </row>
@@ -3968,14 +3776,46 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>273035</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ITANAEL MARCELO DA SILVA ROCHA LEITE</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>De: 14/11/2023a14/11/2024</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>53123090100354</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3998,7 +3838,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>400367 - LUCIANA MARIA CAPPELLANO WAACK</t>
+          <t>400204 - MAURICIO LOPES</t>
         </is>
       </c>
     </row>
@@ -4006,14 +3846,46 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>43899</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MARTA SOUTO DE PROENCA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>De: 20/11/2023a20/11/2024</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>5310389A05EI95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4036,7 +3908,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>400851 - LUIZ FERNANDO BERNARDI PELLIN</t>
+          <t>400204 - MAURICIO LOPES</t>
         </is>
       </c>
     </row>
@@ -4044,46 +3916,14 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>271479</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>THAMA CHRISTIE THOMAZ LANZONI</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>De: 16/10/2023a16/10/2024</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>53123089054883</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4096,7 +3936,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -4106,7 +3946,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>400617 - MARCELLA STORANI</t>
+          <t>508795 - MEM CORRETAGEM DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4114,14 +3954,46 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>43667</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>HENRIQUE BRATFISCH</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>De: 22/11/2023a22/11/2024</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>53103899YRODT9</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4144,7 +4016,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>400408 - MARCIO FERREIRA DA SILVA</t>
+          <t>506074 - MUTUAL CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
     </row>
@@ -4159,12 +4031,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>270462</t>
+          <t>5463</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4174,17 +4046,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CELIO JOSE COSTALONGA</t>
+          <t>GIRAMUNDO BERCARIO E EDUCACAO INFANTIL LTDA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>53123088578706</t>
+          <t>53103893NB8FL2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4214,7 +4086,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>400170 - MARCO ANTONIO TREVISAN ARANTES</t>
+          <t>506074 - MUTUAL CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4101,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5264</t>
+          <t>43523</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4244,17 +4116,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PR2 EMPREENDIMENTOS IMOBILIARIOS LTDA</t>
+          <t>WALDENICE FREITAS DO NASCIMENTO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 07/11/2023a07/11/2024</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>53103893M4KXT9</t>
+          <t>53103899XWT9T3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4284,7 +4156,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>488050 - MARIA PAULA RIBEIRO CONTENTO</t>
+          <t>486370 - ON SEGUROS CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4299,12 +4171,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>42853</t>
+          <t>272773</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4314,17 +4186,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>KAREN CONTENTO ARRUDA</t>
+          <t>ANDRE ALESSANDRO DE PAULA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>53103899TX7IP0</t>
+          <t>53123089842326</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4354,7 +4226,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>488050 - MARIA PAULA RIBEIRO CONTENTO</t>
+          <t>486370 - ON SEGUROS CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4246,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>42912</t>
+          <t>43765</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4384,17 +4256,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LISANGELA CONTENTO DE OLIVEIRA CANTERUCCI</t>
+          <t>STEPHANE PIERRE ANTOINE PETRIS</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>De: 17/10/2023a17/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>53103899U9URL9</t>
+          <t>53103899ZCOK16</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4424,7 +4296,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>488050 - MARIA PAULA RIBEIRO CONTENTO</t>
+          <t>486370 - ON SEGUROS CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4432,14 +4304,46 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>43767</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>STEPHANE PIERRE ANTOINE PETRIS</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>De: 16/11/2023a16/11/2024</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>53103899ZD3ZL3</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4462,7 +4366,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>414851 - MARILENE NEGRO DA SILVA</t>
+          <t>486370 - ON SEGUROS CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4477,12 +4381,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>270595</t>
+          <t>43766</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4492,22 +4396,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TANIA CRISTINA MARTINEZ TOME</t>
+          <t>STEPHANE PIERRE ANTOINE PETRIS</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>53123088657380</t>
+          <t>53103899ZCW9T2</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4532,7 +4436,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>400204 - MAURICIO LOPES</t>
+          <t>486370 - ON SEGUROS CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4552,7 +4456,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>270329</t>
+          <t>273037</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4562,17 +4466,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RAFAEL SAMPAIO APIS</t>
+          <t>PEDRO LUIZ MANFRI</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>De: 07/10/2023a07/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>53123088458050</t>
+          <t>53123090100370</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4602,7 +4506,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>400204 - MAURICIO LOPES</t>
+          <t>401433 - OSMIL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4610,46 +4514,14 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>272597</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>ANA PAULA VULF</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>53123089728353</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4672,7 +4544,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>400204 - MAURICIO LOPES</t>
+          <t>484643 - PERESSINOTTO E DIAS CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -4680,14 +4552,46 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>43535</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FABIO LUIS CHINAGLIA FERREIRA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>De: 07/11/2023a07/11/2024</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>53103899XZDV55</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4700,7 +4604,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4710,7 +4614,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>508795 - MEM CORRETAGEM DE SEGUROS LTDA</t>
+          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4634,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>42974</t>
+          <t>43574</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4740,17 +4644,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>RODRIGO PIRES</t>
+          <t>RODOLFO CANTARINI</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>53103899UN55T4</t>
+          <t>53103899Y7QSH5</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4780,7 +4684,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>506074 - MUTUAL CORRETORA DE SEGUROS EIRE</t>
+          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4704,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>272096</t>
+          <t>272869</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4810,17 +4714,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>WILMA RODRIGUES PEREIRA</t>
+          <t>GENTIL SANCHES MAROCHO</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>53123089399074</t>
+          <t>53123089909641</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4850,7 +4754,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>506074 - MUTUAL CORRETORA DE SEGUROS EIRE</t>
+          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4774,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>272579</t>
+          <t>273438</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4880,17 +4784,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MARIO NELSON VIEIRA MENDES</t>
+          <t>RODOLFO CANTARINI</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>53123089728175</t>
+          <t>53123090457309</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4920,7 +4824,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>506074 - MUTUAL CORRETORA DE SEGUROS EIRE</t>
+          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
         </is>
       </c>
     </row>
@@ -4940,7 +4844,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>42523</t>
+          <t>44128</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4950,17 +4854,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>IGOR LIMA DE SOUZA</t>
+          <t>ERIKA PASSERI CAMARINE</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 27/11/2023a27/11/2024</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>53103899RYH817</t>
+          <t>5310389A1IHHD0</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4990,7 +4894,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>486370 - ON SEGUROS - CORRETORA DE SEGURO</t>
+          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
         </is>
       </c>
     </row>
@@ -4998,46 +4902,14 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>42574</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>VITOR PACHECO RUBIN</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>53103899S9EQP3</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5060,7 +4932,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>486370 - ON SEGUROS - CORRETORA DE SEGURO</t>
+          <t>485867 - PRISCILA VISACRE CORR DE SEGS -</t>
         </is>
       </c>
     </row>
@@ -5068,46 +4940,14 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>270493</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>ANGELA NALDI GATTI</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>De: 07/10/2023a07/10/2024</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>53123088579010</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5130,7 +4970,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>486370 - ON SEGUROS - CORRETORA DE SEGURO</t>
+          <t>403951 - REGULUS LEONIS CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -5138,46 +4978,14 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>919</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2033</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>RESIDENCIAL DA GAVEA</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>531038932W2DT2</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5200,7 +5008,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>486370 - ON SEGUROS - CORRETORA DE SEGURO</t>
+          <t>400212 - REINALDO PORTELLA</t>
         </is>
       </c>
     </row>
@@ -5208,46 +5016,14 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>270931</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>ULISSES RAFAEL ALVES DE CAMARGO</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>53123088799036</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5270,7 +5046,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>486370 - ON SEGUROS - CORRETORA DE SEGURO</t>
+          <t>400423 - ROGERIO DOS REIS GARCIA</t>
         </is>
       </c>
     </row>
@@ -5278,46 +5054,14 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>270806</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>BRUNA FRANCIELE RIBEIRO DE ANDRADE</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>De: 16/10/2023a16/10/2024</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>53123088736433</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5340,7 +5084,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>401433 - OSMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>414740 - RSXP CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5104,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>271078</t>
+          <t>273352</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5370,17 +5114,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CAMILA VENANCIO DE ANDRADE DENNY</t>
+          <t>ALEXANDRE ALVES DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>53123088860835</t>
+          <t>53123090373555</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5410,7 +5154,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>401433 - OSMIL CORRETORA DE SEGUROS LTDA</t>
+          <t>524633 - Ramos e Verza Corretora de Segur</t>
         </is>
       </c>
     </row>
@@ -5418,14 +5162,46 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>273686</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>REINALDO JOSE DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>53123090688793</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5448,7 +5224,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>484643 - PERESSINOTTO E DIAS CORR DE SEG</t>
+          <t>524633 - Ramos e Verza Corretora de Segur</t>
         </is>
       </c>
     </row>
@@ -5456,46 +5232,14 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>42334</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>DANIEL FONTAO DE PAULI</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>53103899QTYW19</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5518,7 +5262,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>526091 - S TAFFURI CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -5526,46 +5270,14 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>42563</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>MARIA APARECIDA RODRIGUES DE MOURA</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>53103899S71V50</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5588,7 +5300,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>428940 - SANTOS JUNIO CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -5596,46 +5308,14 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>42564</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>SEBASTIANA VIEIRA COSTACURTA</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>53103899S79KX8</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5658,7 +5338,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>400881 - SEVERINO FERREIRA DA SILVA</t>
         </is>
       </c>
     </row>
@@ -5673,12 +5353,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>42807</t>
+          <t>272827</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5688,17 +5368,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>RICARDO MANOEL DO NASCIMENTO</t>
+          <t>JOSE HAMILTON DA SILVA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>De: 11/10/2023a11/10/2024</t>
+          <t>De: 05/11/2023a05/11/2024</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>53103899TNCKX1</t>
+          <t>53123089909226</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5728,7 +5408,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -5743,12 +5423,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>43067</t>
+          <t>273126</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5758,17 +5438,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>RODOLFO CANTARINI</t>
+          <t>JOSE HAMILTOM DA SILVA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>53103899V72R51</t>
+          <t>53123090173971</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5798,7 +5478,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5498,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>272289</t>
+          <t>272859</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5828,17 +5508,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>EUNICE NUNES DE OLIVAIRA NARDELLI</t>
+          <t>MARCELO DONIZETE GABETTA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 11/11/2023a11/11/2024</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>53123089512342</t>
+          <t>53123089909544</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5868,7 +5548,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5568,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>43279</t>
+          <t>43894</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5898,17 +5578,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>EDGARD RAMIRO CRISPIM</t>
+          <t>ALEX GUSTAVO DE CAMPOS</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>53103899WGIK16</t>
+          <t>5310389A04BXD0</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5938,7 +5618,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>403687 - PRINCESA D OESTE ASS ADM CORR SE</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -5946,14 +5626,46 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>43935</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>AELCIO PASCHOIN</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>De: 22/11/2023a22/11/2024</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>5310389A0D4A90</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5976,7 +5688,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>485867 - PRISCILA VISACRE CORR DE SEGS -</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5708,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>271920</t>
+          <t>273243</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6006,22 +5718,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>BEATRIZ JORGE OTAVIO</t>
+          <t>FELIPE JORGE DE CAMPOS</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>53123089330007</t>
+          <t>53123090260459</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6046,7 +5758,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>403951 - REGULUS LEONIS CORRETORA DE SEG</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -6054,14 +5766,46 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>273517</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>JOSE DE ANDRADE DINIZ</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>53123090522470</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6084,7 +5828,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>400212 - REINALDO PORTELLA</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -6092,14 +5836,46 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>44167</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LIDIOMAR OLIVEIRA DE PAULA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>De: 29/11/2023a29/11/2024</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>5310389A1QUEP3</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6122,7 +5898,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>400423 - ROGERIO DOS REIS GARCIA</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -6142,7 +5918,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>270534</t>
+          <t>274094</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -6152,22 +5928,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>LILIAN GRACIELA LAZARETTE</t>
+          <t>ROBSON IVAN MIRANDA OLIVEIRA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>53123088579427</t>
+          <t>53123091022624</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6192,7 +5968,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>414740 - RSXP CORRETORA DE SEGUROS LTDA</t>
+          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
         </is>
       </c>
     </row>
@@ -6212,7 +5988,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>271555</t>
+          <t>273017</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6222,22 +5998,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>PATRICIA DUARTE PETRUCELLI FROIS</t>
+          <t>MARCELO MASINI</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>53123089055642</t>
+          <t>53123090100176</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6262,7 +6038,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>414740 - RSXP CORRETORA DE SEGUROS LTDA</t>
+          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6277,12 +6053,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>272250</t>
+          <t>43597</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6292,17 +6068,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>BRUNO CESAR VIVEIROS JOAQUIM</t>
+          <t>DIEGO DE OLIVEIRA PINTO</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>53123089511958</t>
+          <t>53103899YCO9D6</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6332,7 +6108,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>414740 - RSXP CORRETORA DE SEGUROS LTDA</t>
+          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6347,12 +6123,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>270041</t>
+          <t>43960</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6362,17 +6138,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>JOAO CARLOS DA SILVA</t>
+          <t>PAULO SOLE PONCE</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>De: 03/10/2023a03/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>53123088249788</t>
+          <t>5310389A0IH6P3</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6402,7 +6178,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
+          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6193,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>270341</t>
+          <t>43944</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6432,17 +6208,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TAMARA ARRUDA TUCCI DE SOUZA</t>
+          <t>ARMANDO BORTOLAI NETO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 25/11/2023a25/11/2024</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>53123088458174</t>
+          <t>5310389A0F1Q99</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6472,7 +6248,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
+          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6268,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>270748</t>
+          <t>273524</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -6502,17 +6278,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>BRUNA LISA DE OLIVEIRA PRETO</t>
+          <t>RONALDO THADEU BARROS DA SILVA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 30/11/2023a30/11/2024</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>53123088735852</t>
+          <t>53123090522542</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6542,7 +6318,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
+          <t>437267 - SUPINO CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6557,12 +6333,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>270535</t>
+          <t>43857</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -6572,17 +6348,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ELISANGELA CRISTINA DE ASSIS</t>
+          <t>MARCAL GREB FERNANDES</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>De: 14/10/2023a14/10/2024</t>
+          <t>De: 18/11/2023a18/11/2024</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>53123088579435</t>
+          <t>53103899ZWEFL6</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6612,7 +6388,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
+          <t>404259 - VASTTU CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6627,12 +6403,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>270742</t>
+          <t>5455</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6642,17 +6418,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ANTONIO TADEU BUENO DE RAMALHO</t>
+          <t>CAMBUI VISTORIAS VEICULARES LTDA</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>De: 15/10/2023a15/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>53123088735798</t>
+          <t>53103893N9IPD9</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6682,7 +6458,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
+          <t>404259 - VASTTU CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -6690,46 +6466,14 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>271962</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>JAIR FERNANDO DA SILVA MARQUES</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>53123089330422</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -6752,7 +6496,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
+          <t>404145 - W MEDEA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -6767,12 +6511,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5359</t>
+          <t>273560</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6782,17 +6526,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CLEUSA APARECIDA DE MOURA 10250728800</t>
+          <t>JANAINA PRIMO DA SILVA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>De: 23/10/2023a23/10/2024</t>
+          <t>De: 14/11/2023a14/11/2024</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>53103893MOXYP3</t>
+          <t>53123090576588</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6821,2182 +6565,6 @@
         </is>
       </c>
       <c r="N106" t="inlineStr">
-        <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>5337</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>ESPACO TEKA</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>53103893MK87L8</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>271883</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>SANDRA DONIZETE GOMES LEME</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>53123089259680</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>524633 - Ramos e Verza Corretora de Segur</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>526091 - S TAFFURI CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>270663</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>ALCIDES PAULO RIBEIRO</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>53123088658068</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>428940 - SANTOS JUNIO CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>271334</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>AURELICE SENTALIN VALVERDE</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>53123088986995</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>428940 - SANTOS JUNIO CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>271372</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>AUREA SENTALIN</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>De: 22/10/2023a22/10/2024</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>53123088987371</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>428940 - SANTOS JUNIO CORRETORA DE SEGURO</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>400881 - SEVERINO FERREIRA DA SILVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>270386</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>JOSE HAMILTON DA SILVA</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>De: 02/10/2023a02/10/2024</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>53123088520880</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>269718</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>MARLI PORFIRIA DE CAMPOS ALMEIDA</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>53123088000127</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>269959</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>PATRICIA APARECIDA DE FREITAS</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>53123088191852</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>269974</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>GISELE CRISTINA ROSA ESPERANCA</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>De: 06/10/2023a06/10/2024</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>53123088192000</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>271106</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>LAURINDO SEBASTIAO</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>53123088913718</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>270529</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>ANTONIA SEBASTIANA TENAN DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>De: 14/10/2023a14/10/2024</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>53123088579370</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>271476</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>LUCAS GABRIEL LOPES</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>53123089054859</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>42971</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>DENIS ALEXANDRE ROTTA GARCIA</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>De: 21/10/2023a21/10/2024</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>53103899UMI0H1</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>271694</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>ANIBAL CELESTE ESPERANCA JUNIOR</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>De: 26/10/2023a26/10/2024</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>53123089133970</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>272419</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>PATRICIA GOMES DE ASSIS</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>De: 29/10/2023a29/10/2024</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>53123089598930</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>272311</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>ERSIO MELLO JUNIOR</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>53123089512563</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>485561 - SIMONE L. MAZON CORRETORA DE SEG</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>271445</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>SILVIA RIBEIRO BERTONI</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>53123089054549</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>270885</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>FERNANDA TEGASINI</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>De: 17/10/2023a17/10/2024</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>53123088798579</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>42938</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>ESMERALDA APARECIDA HORTENSE RIBEIRO PIERRE</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>53103899UFFDT8</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>270944</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>ROGERIO BERTOLINO LEMOS</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>53123088799168</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>42959</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>JULIANE MEDEIROS DA SILVEIRA</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>53103899UJXF55</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>43130</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>ALEXANDRE GRANDO DE OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>De: 25/10/2023a25/10/2024</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>53103899VKKV59</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>43122</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>FATIMA APARECIDA MARIN STAHL</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>53103899VIV4X7</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>508528 - STAHL CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>271897</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>FERNANDO BERNARDINO</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>De: 28/10/2023a28/10/2024</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>53123089259825</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>437267 - SUPINO CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>270218</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>ROBERTO LIBORIO SCOLLO</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>53123088387196</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>404259 - VASTTU CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>270690</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>CRISTIANO ROBERTO RIBAS</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>De: 07/10/2023a07/10/2024</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>53123088735275</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>404145 - W MEDEA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>272518</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>JOSE CARLOS TEIXEIRA</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>De: 30/10/2023a30/10/2024</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>53123089671360</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>404145 - W MEDEA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>269972</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>GABRIELA DE PADUA FACONI</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>53123088191984</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>503604 - W SILVA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>271533</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>JOSE CARLOS DA SILVA</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>53123089055421</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>503604 - W SILVA CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>271665</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>PAULO ROBERTO DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>53123089133686</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>355.733.588-71 - Amanda Gonçalves dos Santos</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
         <is>
           <t>503604 - W SILVA CORRETORA DE SEGUROS LTD</t>
         </is>
